--- a/Documentação.xlsx
+++ b/Documentação.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nome do Caso de Uso</t>
   </si>
@@ -60,19 +60,25 @@
     <t xml:space="preserve">                                                                                                                                  </t>
   </si>
   <si>
-    <t>4. Enviar o arquivo para um banco de dados</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. Listar os arquivos do diretório </t>
   </si>
   <si>
     <t>Acões do sistema</t>
   </si>
   <si>
-    <t>5. O sistema deve informar que a importação foi realizada com sucesso</t>
-  </si>
-  <si>
     <t>1. Criar um arquivo em lote com os dados de vários usuários contendo os campos nome, sobrenome e email e salvá-lo em um diretório no sistema. Clicar num botão selecionar arquivo</t>
+  </si>
+  <si>
+    <t>4. Cadastrar um departamento e uma senha</t>
+  </si>
+  <si>
+    <t>6. Enviar o arquivo para um banco de dados</t>
+  </si>
+  <si>
+    <t>7. O sistema deve informar que a importação foi realizada com sucesso</t>
+  </si>
+  <si>
+    <t>5. Clicar num botão salvar</t>
   </si>
 </sst>
 </file>
@@ -248,8 +254,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -259,6 +274,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,12 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -313,80 +391,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,326 +740,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="24" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="22" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="46"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="52"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N20"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H20"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:N6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:N2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="D4:N4"/>
     <mergeCell ref="I17:N17"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="D8:N8"/>
@@ -1022,18 +1140,7 @@
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I16:N16"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:N2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="D4:N4"/>
     <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:N6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1046,7 +1153,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1058,7 +1165,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
